--- a/downloaded_files/MDPS261_Lecture-35517.xlsx
+++ b/downloaded_files/MDPS261_Lecture-35517.xlsx
@@ -231,13 +231,13 @@
     <x:t>Amr Mohamed Abdulsalam Aboseada</x:t>
   </x:si>
   <x:si>
-    <x:t>1240353</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">مايا  شريف عبداللطيف محمد </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Maya Sherif Abdellatif Mohamed</x:t>
+    <x:t>1240180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم عصام محمد عادل محمد الزيات</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KARIM ELZIAT</x:t>
   </x:si>
   <x:si>
     <x:t>1240132</x:t>
@@ -1556,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6651923611</x:v>
+        <x:v>45922.3376131134</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>

--- a/downloaded_files/MDPS261_Lecture-35517.xlsx
+++ b/downloaded_files/MDPS261_Lecture-35517.xlsx
@@ -129,7 +129,7 @@
     <x:t>جمانه محمد جلال كامل محمد توفيق</x:t>
   </x:si>
   <x:si>
-    <x:t>Jumana mohamed galal kamel</x:t>
+    <x:t>Jumana Mohammed Jalal Kamel Mohammed Tawfiq</x:t>
   </x:si>
   <x:si>
     <x:t>1240043</x:t>
@@ -770,7 +770,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.520625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="46.380625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="46.410625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/MDPS261_Lecture-35517.xlsx
+++ b/downloaded_files/MDPS261_Lecture-35517.xlsx
@@ -213,15 +213,6 @@
     <x:t>Ali mohamed nagy mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1240341</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر علاءالدين محمد الحصري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omer Alaaeldin Mohammed Elhosary</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240198</x:t>
   </x:si>
   <x:si>
@@ -319,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>MALAK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>هادى عبدالعال رضا عبدالعال سلطان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hady Abdelaal Reda</x:t>
   </x:si>
   <x:si>
     <x:t>1240396</x:t>
@@ -1492,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651002662</x:v>
+        <x:v>45907.666456331</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.666456331</x:v>
+        <x:v>45922.3376131134</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45922.3376131134</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.4192876157</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4192876157</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45908.4348194792</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4348194792</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45907.6652414005</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6652414005</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45907.6656036227</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6656036227</x:v>
+        <x:v>45925.4145512731</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>

--- a/downloaded_files/MDPS261_Lecture-35517.xlsx
+++ b/downloaded_files/MDPS261_Lecture-35517.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>Ahmed Tarek monir Yousef Elmenofy</x:t>
   </x:si>
   <x:si>
-    <x:t>1210191</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد مجدي محمد عبدالحميد ابوزيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Magdy Mohamed Abdelhamid Abouzidmid</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240016</x:t>
   </x:si>
   <x:si>
@@ -78,6 +69,15 @@
     <x:t>Ahmed mohamed aly younes omar</x:t>
   </x:si>
   <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230158</x:t>
   </x:si>
   <x:si>
@@ -202,15 +202,6 @@
   </x:si>
   <x:si>
     <x:t>saad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220308</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على محمد ناجى محمود حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali mohamed nagy mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1240198</x:t>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -771,7 +762,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.520625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.410625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -948,7 +939,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.5695991551</x:v>
+        <x:v>45907.6665537847</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -980,7 +971,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6665537847</x:v>
+        <x:v>45927.4642067477</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1460,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4295119213</x:v>
+        <x:v>45907.666456331</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.666456331</x:v>
+        <x:v>45922.3376131134</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45922.3376131134</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.4192876157</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4192876157</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45908.4348194792</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45908.4348194792</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45907.6652414005</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6652414005</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45907.6656036227</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6656036227</x:v>
+        <x:v>45925.4145512731</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45925.4145512731</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45907.7220868403</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.7220868403</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS261_Lecture-35517.xlsx
+++ b/downloaded_files/MDPS261_Lecture-35517.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>Hady Abdelaal Reda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
   </x:si>
   <x:si>
     <x:t>1240396</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1835,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45927.7905790509</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.7220868403</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.7220868403</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS261_Lecture-35517.xlsx
+++ b/downloaded_files/MDPS261_Lecture-35517.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -310,15 +310,6 @@
   </x:si>
   <x:si>
     <x:t>Hady Abdelaal Reda</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف اسلام حجازى محمد سلامة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Islam Hegazy Mohamed Salama</x:t>
   </x:si>
   <x:si>
     <x:t>1240396</x:t>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -980,7 +971,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45927.4642067477</x:v>
+        <x:v>45928.7061856134</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.7905790509</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45907.7220868403</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.7220868403</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS261_Lecture-35517.xlsx
+++ b/downloaded_files/MDPS261_Lecture-35517.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,15 +67,6 @@
   </x:si>
   <x:si>
     <x:t>Ahmed mohamed aly younes omar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمود محمد محمد خليفة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1230158</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -762,7 +753,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.520625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.410625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -971,7 +962,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45928.7061856134</x:v>
+        <x:v>45907.6649331829</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1003,7 +994,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6649331829</x:v>
+        <x:v>45907.6677771991</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1035,7 +1026,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6677771991</x:v>
+        <x:v>45907.6657842245</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1067,7 +1058,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6657842245</x:v>
+        <x:v>45907.6683715278</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1099,7 +1090,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6683715278</x:v>
+        <x:v>45907.665562419</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1131,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.665562419</x:v>
+        <x:v>45907.6690629977</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1163,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6690629977</x:v>
+        <x:v>45907.6670037847</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1195,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6670037847</x:v>
+        <x:v>45907.6650951042</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6650951042</x:v>
+        <x:v>45907.6651674769</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6651674769</x:v>
+        <x:v>45907.6658125</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6658125</x:v>
+        <x:v>45907.6669303241</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6669303241</x:v>
+        <x:v>45907.6676581829</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6676581829</x:v>
+        <x:v>45907.414719213</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.414719213</x:v>
+        <x:v>45907.6661318287</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6661318287</x:v>
+        <x:v>45907.666456331</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.666456331</x:v>
+        <x:v>45922.3376131134</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45922.3376131134</x:v>
+        <x:v>45907.6659028588</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6659028588</x:v>
+        <x:v>45907.6652133102</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6652133102</x:v>
+        <x:v>45907.4192876157</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4192876157</x:v>
+        <x:v>45907.6977840278</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6977840278</x:v>
+        <x:v>45908.4348194792</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4348194792</x:v>
+        <x:v>45907.6650021181</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6650021181</x:v>
+        <x:v>45907.6652414005</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6652414005</x:v>
+        <x:v>45907.6672944444</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6672944444</x:v>
+        <x:v>45907.6656036227</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6656036227</x:v>
+        <x:v>45925.4145512731</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45925.4145512731</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45907.7220868403</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45907.7220868403</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Stress Analysis (MDPS261) Location : [20323]20323-32-الجيزة الرئيسي Time : Monday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MDPS261_Lecture-35517.xlsx
+++ b/downloaded_files/MDPS261_Lecture-35517.xlsx
@@ -753,7 +753,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.520625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.410625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1858,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.7220868403</x:v>
+        <x:v>45930.6677496528</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>

--- a/downloaded_files/MDPS261_Lecture-35517.xlsx
+++ b/downloaded_files/MDPS261_Lecture-35517.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -319,15 +319,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Ayman Bakry Awaad Youssef</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240405</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد سيد احمد حسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YOUSEF MOHAMED SAYED AHMED HUSSEIN</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -443,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -753,7 +744,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.520625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.410625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1843,38 +1834,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45930.6677496528</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS261_Lecture-35517.xlsx
+++ b/downloaded_files/MDPS261_Lecture-35517.xlsx
@@ -171,7 +171,7 @@
     <x:t>1240194</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">زياد عمر احمد عمر </x:t>
+    <x:t>زياد عمر احمد عمر محمود السيد</x:t>
   </x:si>
   <x:si>
     <x:t>ZEYAD OMAR AHMED OMAR</x:t>
